--- a/Katalon Projects/Test Scenarios/COOLMATE-002.xlsx
+++ b/Katalon Projects/Test Scenarios/COOLMATE-002.xlsx
@@ -93,7 +93,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +111,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,32 +210,32 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -514,7 +522,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,7 +530,7 @@
     <col min="1" max="1" width="9.28515625" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" customWidth="1"/>
     <col min="3" max="3" width="55.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" customWidth="1"/>
     <col min="5" max="5" width="48.140625" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
@@ -555,107 +563,107 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="8">
+    <row r="4" spans="1:8" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="8">
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
         <v>4</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="9" t="s">
         <v>13</v>
       </c>
     </row>
